--- a/webscrapping/day1/news_data.xlsx
+++ b/webscrapping/day1/news_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,174 +434,156 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>journalist</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>journalist</t>
+          <t>write_at</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>write_at</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>body</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>트론, 나스닥 상장한다…트론(TRX) 토큰 비축 기업 만들듯</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>대신증권이 본사 사옥 리츠에 담은 이유는(feat.대신밸류리츠)</t>
+          <t>이종화</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>김보라</t>
+          <t>2025.06.17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025.06.12. 오후 1:24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>대신밸류리츠, 12일 코스피 상장 위한 IPO간담회 개최대신증권 입주한 을지로 대신343 건물, 리츠에 담아임대수익 바탕으로 3개월마다 투자자에 분기배당 예정5년 내에 추가 자산 편입해 2조원 대 초대형리츠 목표서울 중구 삼일대로 343에 위치한 대신343(대신파이낸스센터) 건물대신증권 본사인 대신343(대신파이낸스센터) 건물을 담은'대신밸류리츠'가 유가증권시장 상장에 도전한다.서울 중구에 위치한 대신343 건물은 본래 대신증권 소유로 회사는 여러 차례 건물매각을 시도했지만 결실을 보지 못했다. 이후 대신증권은 대신343 건물을 리츠로 돌려 건물매각금액을 확보했고 향후 올라갈 부동산 가치까지 확보할 수 있도록 리츠지분 투자에도 나섰다.대신밸류리츠는 이번 상장을 통해 자산 2조원의 초대형 리츠로 성장하겠다고 포부를 밝혔다. 대신밸류리츠는 12일 서울 여의도 63스퀘어에서 기업공개(IPO) 기자간담회를 열고 대신밸류리츠의 향후 성장 전망을 투자자들에게 소개했다.대신증권 본사 건물 담은 대신밸류리츠부동산투자신탁, 즉리츠(REITs, Real Estate Investment Trust)는 부동산에 투자해 이익금을 투자자들에게 배당형태로 분배하는 부동산간접투자기구 주식회사다. 대신밸류리츠는 서울 중구 을지로 역세권에 위치한 대신343건물을 기반으로 주주들로부터 투자를 받고 해당 건물에서 나오는 이익을 주주에게 배당하는 회사다. 대신343건물을 실질적으로 보유하고 있는 것은 대신밸류리츠(母)가 지분을 100% 보유한 자(子)리츠 대신밸류리츠사모제1호다.대신밸류리츠의 자산관리회사인 대신자산신탁의 김송규 대표이사는 이날 IPO간담회에서 "대신밸류리츠는 금융서비스와 부동산사업 전주기를 아우르는 대신파이낸셜그룹의 인프라를 기반으로 향후 안정성과 수익성을 모두 갖췄다"고 강조했다.대신밸류리츠는 지난해 10월 설립했고 제3자배정 유증 등 신주발행을 거쳐 현재 최대주주는 한국투자증권(지분율 39.3%)이다. 그 밖에 NH투자증권(23.7%), 농협은행(13.5%), 현대해상화재보험(6.7%) 등이 주주로 있으며 본래 대신343 건물 소유주였던 대신증권도 지난 3월 540억원 규모의 전환사채(추후 주식으로 전환 가능, 전환 후 대신증권 지분율 18.1%)에 투자했다.대신증권은 애초 본사 사옥인 대신343 건물을 매각해 자기자본을 확충, 종합금융투자사업자(종투사)의 기반을 다지려고 했다. 이를 위해 2023년 8월 이지스자산운용과 매각협상을 벌였지만 가격 합의가 이루어지지 않아 무산됐다. 1년 뒤 2024년 9월에는 NH아문디자산운용과 협상을 했지만 결국 매각에 도달하지 못했다.다만 본사 사옥을 매각하지 못했지만 대신증권은 지난해 말 자기자본 3조원을 확보해 금융당국으로부터 제10호 종투사로 지정됐다.종투사라는 1차 목적을 달성한 만큼 대신343 건물 매각 필요성은 사라졌다. 다만 대신증권은 서울 한복판에 위치하는 등 장점이 많은 대신343을 활용해 수익을 다변화할 수 있는 방법을 고민했다. 결국 직접 매각보단 리츠에 담아 투자금을 끌어모으는 방식을 택한 것이다.대신자산신탁 김송규 대표이사(오른쪽 끝)가 12일 서울 여의도 63스퀘어에서 열린 '대신밸류리츠' IPO간담회에서 인사말을 하고 있다./사진=김보라 기자대신밸류리츠 투자, 장점은 안정적 분기배당서울 중구 삼일대로343에 있는 대신343 건물은 중심업무지구(CBD)에 있어 유동인구가 많고 명동성당 및 남산조망을 즐길 수 있다는 장점이 있다. 남산터널만 지나면 곧 바로 강남지역과 연결된다는 것도 큰 이점이다. 이날 발표를 맡은 박영곤 대신자산신탁 리츠투자부문 이사대우 부문장은 "CBD 지역인 을지로·종로 중심으로 임대료가 꾸준히 상승하고 있다"고 강조했다.개인투자자들은 대신밸류리츠에 청약하면 대신343 건물에 간접 투자하는 효과를 누린다. 큰 금액을 들이지 않고 적은 돈(공모가 1주당 5000원)로 서울 중심에 위치한 건물에 투자하고 해당 건물에서 나오는 이익을 배분받을 수 있다.아울러 대신밸류리츠와 같은 위탁관리리츠는 배당가능이익의 90%를 무조건 의무적으로 배당해야 한다. 위탁관리리츠란 건물의 투자운용을 자산관리회사에 위탁해 운영하는 형태로 대신343건물을 위탁관리는 대신자산신탁이 맡는다.대신밸류리츠는 상장 이후 3개월마다 분기배당할 예정인데 회사는 오는 6월부터 8월까지 3개월 치 예상 배당금으로 1주당 4371원을 제시했다. 공모가 기준 목표 배당수익율을 연 6.35%(7년 평균 예상)로 제시하고 있다.안정적인 배당에는 대신증권·대신F&amp;I 등 대신파이낸셜그룹 계열사들이 큰 기여를 할 전망이다. 대신증권은 대신343 건물을 리츠로 돌렸지만 해당 건물에 오는 2032년까지 임차계약을 맺었다. 박영곤 부문장은 "대신그룹 계열사들과 최대 10년간 장기 책임임대차 계약을 체결해 임대율 100%를 확보했다"고 강조했다.부동산 경기 아직 안 좋은데 괜찮을까리츠가 부동산 경기활성화를 목적으로 등장한 만큼 지난 2022년 말부터 이어지고 있는 부동산 경기 악화가 리츠 투자에도 영향을 미칠 것이라는 우려도 있다. 부동산 경기가 얼어붙으면 리츠가 담고 있는 건물에 공실이 생기는 등 문제가 발생하고 결국 리츠 수익률도 크게 떨어질 수 있기 때문이다.다만 리츠시장 자체는 부동산 경기 불황과는 다소 동떨어진 결과를 보여주고 있다. 지난해 말 리츠 시장 자산규모 100조원을 돌파했다.리츠 시장 자체가 성장하고 있는 가운데 부동산 시장이 정부정책에 영향을 많이 받는다는 점은 고려해야할 부분이다. 대신밸류리츠 역시 증권신고서를 통해 "부동산 시장은 국내 경기변동에 민감하게 작용하는 만큼 대신343 건물의 임대수익구조에 불리하게 작용할 수 있다"고 설명했다.아울러 이번 공모주 청약을 통해 확보하는 자금은 당장의 새로운 자산매입 등 투자에 쓰이지 않는 것은 아쉬운 지점이다. 대신밸류리츠가 이번 상장으로 확보하는 자금 965억원은 오는 6월 만기가 다가오는 사모사채를 상환하는데 쓸 예정이다. 사모사채 규모는 899억원으로 상장 전 대신증권으로부터 빌린 단기대출 성격의 자금이다. 결국 이번 상장으로 확보하는 자금이 고스란히 대신증권에게 돌아가는 구조다.다만 박영곤 대신자산신탁 리츠투자부문 부문장은 "국내 핵심지역 우량자산을 지속적으로 편입해 상장 후 5년내에 자산규모 2조원 이상 초대형 상장리츠로 성장하는 것이 목표"라고 강조했다. 회사는 현재 개발 중인 서울 종로구 서린동 서린345 개발사업, 서울 중구 세운5지구 개발사업, 서울 서초구 343강남 등을 추가 자산으로 편입할 예정이다.한편 대신밸류리츠는 이번 IPO를 통해 총 1930만주의 신주를 발행한다. 공모가는 1주당 5000원이다. 일반투자자는 오늘 6월 23일~24일 이틀간 청약할 수 있다. 청약은 △대신증권 △한국투자증권 △삼성증권 3곳에서 가능하다. 유가증권시장(코스피) 상장 예정일은 오는 7월 10일이다.</t>
+          <t>트론 로고. 사진제공=트론SRM엔터 인수해 나스닥 상장 계획하루 만에 SRM엔터 534% 폭등해트럼프 일가와 친한 저스틴 선 창업자상장 작업도 트럼프 관련 기업서 진행가상자산 트론(TRX)을 발행하는 트론이 나스닥 상장에 나선다.17일 파이낸셜타임즈(FT) 등 외신에 따르면 저스틴 선 창업자가 이끄는 트론은 나스닥 상장사 SRM엔터테인먼트 인수를 통해 나스닥에 상장할 계획이다.이 소식에 SRM엔터테인먼트는 16일(현지시간) 533.79% 폭등한 9.19달러에 마감했다. 단 SRM엔터테인먼트는 애프터 마켓에서 한때 10% 이상 하락했다.트론은 나스닥에 상장한 이후 TRX 비축 전략을 사용할 것으로 보인다.SRM엔터테인먼트는 개인 투자자로부터 1억달러를 조달해 TRX 비축 전략을 실행할 것이라고 밝혔다. 옵션 실행 등에 따라 SRM엔터테인먼트는 최대 2억1000만달러를 조달할 수 있다.트론의 상장 작업은 도날드 트럼프 미국 대통령 일가와도 연관되어 있는 미국 도미나리(Dominari) 증권에서 진행한다.트럼프 대통령의 두 아들들인 도날드 트럼프 주니어(DTJ)와 에릭 트럼프는 올해 초 도미나리 증권의 자문 위원회에 이름을 올린 바 있다.이로 인해 에릭 트럼프가 트론과 손잡을 것이라는 소문도 한때 돌았다. 단 에릭 트럼프는 이에 대해 부인했다.에릭 트럼프는 본인 X(구 트위터)에서 “난 트론의 가장 큰 팬이고 저스틴 선 창업자는 좋은 친구이자 크립토 업계의 아이콘”이라며 “단 난 트론에 공식적으로 관여(public involvement)하지 않고 있다”고 밝혔음저스틴 선 트론 창업자. 사진=트론저스틴 선 창업자도 SRM엔터테인먼트에 자문 역할로 참여하게 된다.저스틴 선 창업자는 보도자료를 통해 “스테이블코인과 블록체인은 더 빠르고, 저렴하고, 투명한 거래를 통해 글로벌 결제망을 혁신하고 있다”며 “3억1000만명이 넘는 유저 수와 매일 200억달러가 넘는 거래규모를 자랑하는 트론은 앞으로도 전 세계 사람들에게 블록체인 혜택을 제공할 것”이라고 밝혔다.한편 저스틴 선 창업자는 최근 트럼프 일가와의 연결고리를 강화하는 행보를 보이고 있다.저스틴 선 창업자는 트럼프 대통령 일가가 운영하는 탈중앙화금융(디파이) 프로젝트 WLFI에 7500만달러를 투자하기도 했다. 저스틴 선 창업자는 WLFI의 자문 역할로도 참여했다.또 저스틴 선 창업자는 트럼프 대통령 밈코인 보유량 1위를 기록하며 ‘밈코인 만찬’에 초청받기도 했다.저스틴 선 창업자는 지난 2023년 미국 증권거래위원회(SEC)로부터 소송을 당한 바 있다. 단 트럼프 대통령의 2차 당선 이후 SEC 조사와 소송 모두 끝난 상태다.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>코스피, 3년 5개월 만에 2,980선 돌파…개인 매수에 이틀 연속 급등</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>코스피 쭉쭉 오르는데···투자자 금투업계 전산장애 재발 '우려'</t>
+          <t>우승민</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>이라진</t>
+          <t>2025.06.17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025.06.12. 오후 1:18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>코스피, 연고점 탈환금감원, 키움증권 수시 검사 결과 발표 언제?12일 한국거래소에 따르면 코스피는 7거래일 연속 상승세를 보이고 있다. 이 가운데 투자자들은 금융투자업계의 전산장애 재발에 대한 우려를 하고 있는 모습이다. /더팩트 DB코스피 지수가 상승 랠리를 펼치고 있는 가운데 투자자들은 올해 연달아 발생했던 금융투자업계의 전산장애 재발을 우려하고 있다.12일 한국거래소에 따르면 오후 12시 1분 기준 코스피는 전 거래일 대비 0.67%(19.41포인트) 상승한 2926.45에 거래 중이다. 이날 코스피는 장 초반 2926.45를 찍으며 52주 최고치를 경신했다.코스피는 이재명 정부 출범으로 '허니문 랠리'가 이어지며 대선 전날을 포함해 7거래일 연속 상승세다. 종가 기준 6월 2일 2690선에서 2700선, 2800선을 탈환하고 지난 11일에는 3년 5개월 만에 2900선을 돌파했다. 새 정부가 출범한 지난 4일부터 5거래일 만에 7.71% 뛰었다.코스피 상승 랠리는 정치적 불확실성이 해소되고 이재명 정부의 자본시장 활성화 정책 등에 대한 기대감이 작용한 영향으로 풀이된다. 이재명 대통령은 후보 시절 주주 권리를 확대하는 상법 개정안 재추진 등 자본시장 개혁을 통해 '코스피 5000 시대'를 열겠다고 공언했다. 지난 11일에는 취임 후 처음으로 한국거래소를 방문, '주식시장 불공정 거래 근절을 위한 현장 간담회'에 참석해 자본시장 활성화 의지를 내비쳤다.증권가에서는 코스피가 하반기에 3000포인트를 돌파할 것이라는 전망을 내놓고 있다. 김대준 한국투자증권 연구원은 "코스피 밴드를 기존 2400~2900선에서 2600~3150선으로 상향 조정한다"고 밝혔다. 그러면서 "주주환원 강화와 기업 이익 개선에 따른 자기자본이익률(ROE)의 추가 상승 가능성을 지수 전망에 반영한다"며 "하단인 코스피 2600선은 ROE가 고정된 상황에서 관세 위험(리스크)과 인플레이션 압력으로 자본비용이 오르는 경우를 가정한 것이고, 상단 설정에는 정부의 증시 활성화 정책을 고려했다. 자사주 소각과 배당성향 개선 측면에서 ROE는 0.1% 가량 높아질 수 있고 기업이익 개선으로 더 오를 것"이라고 말했다.이같은 증시 랠리와 증권가의 향후 추가 상승 전망이 나오면서 투자자들은 이익 실현을 보며 기대감을 키우고 있지만, 증시가 활성화되면서 올해 상반기 속출했던 금융투자업계의 전산장애 재발을 우려하고 있다.지난 3월 18일 한국거래소에서 코스피 시장 전 종목의 주식 매매 거래가 장중 7분간 중단되는 사태가 벌어졌다. 이는 2005년 한국거래소가 통합 출범한 후 처음 발생한 일이다. 해당 사태는 3월 4일 대체거래소 출범에 따라 '중간가 호가' 시스템이 도입되면서 코스피 상장 종목인 동양철관의 거래 체결과 관련해 장애가 발생하면서 벌어졌다. 이는 코스피 전체 전산의 셧다운으로 이어졌다.또한 키움증권, 미래에셋증권, 메리츠증권 등에서도 전산장애가 발생했다. 특히 키움증권의 경우 HTS와 MTS에서 4월 3일과 4일 이틀 연속으로 주식 매매 주문 체결이 정상적으로 작동하지 않았다.이에 금감원은 한국거래소와 키움증권의 전산장애에 대한 검사에 나섰고, 키움증권을 상대로 진행한 수시 검사는 종료됐다. 금감원은 키움증권에 시정조치나 제재 등을 결정할 예정이다.금융투자업계 관계자는 "연이어 이어진 금융투자업계의 '먹통 사태'에 전산장애의 원인 등 당국의 검사 결과도 나오지 않아 투자자들은 전산장애에 대한 우려를 해소하지 못한 채 재발에 대한 걱정을 하고 있는 모습이다"라며 "한국거래소의 전산장애로 인한 투자자 보상이 불투명하다는 관측이 나오는데다 증권가에서는 보상을 진행하고 있지만 미약하기도 해 우려를 키우고 있다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
+          <t>중동 긴장 완화 기대·미국 반도체 강세 훈풍코스피, 코스닥 [사진 연합뉴스][이코노미스트 우승민 기자] 코스피가 17일 개인 투자자들의 강한 매수세에 힘입어 이틀 연속 상승하며 2,980선을 돌파했다.이날 오전 9시 29분 기준 코스피는 전장보다 35.89p(1.22%) 오른 2,982.55이다.지수는 전장보다 13.27p(0.45%) 오른 2,959.93으로 출발해 상승폭을 키우고 있다. 전날 1.80% 오른 데 이어 연이틀 급등세다.장중에는 2,988.29까지 올라 지난 2022년 1월 13일(2,982.14) 이후 3년 5개월 만에 2,980대로 올라섰다.서울 외환시장에서 달러 대비 원화 환율은 전날보다 3.8원 내린 1,360.0원에 거래를 시작했다.유가증권시장에서 개인이 2600억원 순매수하며 지수를 끌어 올리고 있다.반면 외국인과 기관은 각각 980억원, 1594억원 매도 우위를 보이고 있다. 외국인은 코스피200선물시장에서도 379억원 순매도하고 있다.간밤 뉴욕증시는 이란이 이스라엘과 휴전할 수 있도록 도널드 트럼프 미국 대통령에게 영향력을 행사해달라고 중동 주요국에 요청했다는 보도가 전해진 가운데 중동 긴장 완화에 대한 낙관론이 확산하며 3대 지수가 일제히 올랐다.신형 AI 칩에 대한 호평에 AMD(8.81%) 등이 오르면서 필라델피아반도체지수는 3.03% 급등했다.국내 증시는 중동 긴장 완화 기대가 이어지며 전날에 이어 상승세를 지속하고 있다. 특히 간밤 미국 기술주 강세에 반도체주가 급등하며 지수 상승을 이끌고 있다.한지영 키움증권 연구원은 "이스라엘-이란 휴전 기대감 등에 따른 미국 증시 반등에 힘입어 코스피는 상승 출발할 것"이라고 예상했다.시가총액 상위 종목 중 SK하이닉스(3.23%)가 25만원대로 올라섰으며, 삼성전자(3.50%)도 6만원선에 '바짝' 다가서고 있다.아울러 삼성바이오로직스(0.39%), LG에너지솔루션(0.85%), 현대차(0.74%), 기아(1.54%), NAVER(1.43%) 등도 강세다.한화에어로스페이스(-1.75%), 셀트리온(-0.37%), 삼성물산(-0.35%) 등은 하락 중이다.업종별로 보면 증권(2.72%), 전기전자(2.70%), 전기가스(1.20%) 등이 오르고 있으며, 화학(-0.67%), 유통(-0.73%) 등은 하락 중이다.같은 시각 코스닥지수는 전장보다 6.44p(0.83%) 오른 783.70이다.지수는 전장보다 2.82p(0.36%) 오른 780.08로 출발해 상승폭을 키우고 있다.코스닥시장에서 개인이 808억원 순매수하고 있으며, 외국인과 기관은 각각 617억원, 157억원 매도 우위를 보이고 있다.알테오젠(0.37%), 에코프로비엠(0.22%), 에코프로(0.24%), 삼천당제약(5.25%) 등이 오르고 있다.HLB(-0.39%), 레인보우로보틱스(-0.36%), 파마리서치(-6.44%), 펩트론(-1.81%) 등은 하락 중이다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>결국 답은 HBM 활로 개척이었나…‘4% 급등’ 삼성전자, ‘AMD 납품’ 호재로 단숨에 ‘6만전자’ 코앞 [종목Pick]</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>온도 파이낸스 “토큰화는 이미 여기있는 현실” [매일코인]</t>
+          <t>신동윤</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2025.06.17</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[연합, 신동윤 기자 정리][헤럴드경제=신동윤 기자] 국내 증시 시가총액 1위 종목이자 반도체 ‘대장주’ 삼성전자 주가가 그동안의 부진을 씻고 17일 장 초반 4% 가깝게 급등세를 보였다. 주가도 다시 ‘6만전자(삼성전자 주가 6만원대)’ 코앞에 이르렀다.이날 한국거래소에 따르면 오전 10시 5분 현재 삼성전자 주가는 전 거래일 대비 4.02%(2300원) 상승한 5만9500원에 거래 중이다.삼성전자 주가는 한때 5만9800원까지 오르면서 6만원 선에 근접하기도 했다.이날 삼성전자 주가 강세는 최근 반도체 업황과 메모리 가격 인상 등 기대감이 호재로 작용한 것으로 풀이된다.16일(현지시간) 미 뉴욕증시에서도 미국과 주요국 간의 관세 협상 기대감 속에 대표 반도체지수 필라델피아반도체지수가 3% 넘게 급등했다.삼성전자 주가엔 그동안 글로벌 공급망 경쟁 속에서 부진한 모습을 보였던 인공지능(AI)칩 필수 요소 고대역폭메모리(HBM)에 대한 공급 활로가 열린 점도 호재가 된 모습이다.전날 금융투자업계에 따르면 최근 AMD는 미국에서 열린 ‘AI 어드밴싱 2025’에서 차세대 AI 가속기인 ‘MI350’ 시리즈에 삼성전자의 5세대 HBM HBM3E를 탑재했다고 밝혔다. AMD의 삼성전자 HBM 사용이 공식 확인된 것은 이번이 처음이다.AMD의 MI350은 AI 시장에서 사용되는 차세대 AI 가속기 모델이다. 엔비디아가 조만간 출시를 예고한 블랙웰 시리즈의 대항마다. 업계에서는 AMD의 MI350과 엔비디아의 블랙웰 B100 및 B200의 발표된 성능을 비교해 봤을 때 엔비디아 제품군이 약간 더 우월한 성능을 낼 것으로 보고 있다. 하지만 AMD의 MI350이 더 높은 메모리 용량을 갖추면서 AI 트레이닝 분야에서 더욱 좋은 효과를 낼 것이라는 전망이 나온다.업계에서는 이 대목을 주목하고 있다. 삼성전자의 HBM 기술력이 이전보다 향상됐음을 보여준다는 분석이다. 경쟁사들보다 더 높은 메모리 용량의 제품 양산에 성공해 AI 가속기에 탑재됐다는 의미가 담길 수 있다는 얘기다.다만, 삼성전자 주가가 추가 상승하기 위해선 글로벌 그래픽처리장치(GPU) 시장을 사실상 지배 중인 엔비디아에 대한 HBM 납품을 성사하는 게 필수 요소란 평가가 나온다. AI 가속기 시장에서 엔비디아의 시장 점유율은 80% 이상으로 알려진다. AMD의 점유율은 10%가량이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>'중동 긴장 완화 기대' 코스피 3000선 돌파 시도…삼성전자 3%대↑</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>배요한</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025.06.17</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>중동 완화 기대에 코스피 3000선 근접개인 매수세 유입…삼성전자·SK하이닉스 강세[서울=뉴시스] 김혜진 기자 = 코스피가 전 거래일(2946.66)보다 13.27포인트(0.45%) 오른 2959.93에 개장한 17일 오전 서울 중구 하나은행 딜링룸 전광판에 지수가 표시되고 있다. 코스닥 지수는 전 거래일(777.26)보다 2.82포인트(0.36%) 상승한 780.08에 거래를 시작했다. 원·달러 환율은 전 거래일 주간거래 종가(1363.8원)보다 3.8원 내린 1360.0원에 출발했다. 2025.06.17. jini@newsis.com[서울=뉴시스] 배요한 기자 = 이스라엘과 이란의 군사 충돌로 고조됐던 중동 긴장이 완화될 것이란 기대감에 국내 증시가 상승 출발했다. 특히 코스피는 장중 상승 폭을 키우며 3000선 돌파를 시도하고 있다.17일 한국거래소에 따르면 오전 9시 45분 현재 코스피는 전 거래일보다 45.17포인트(1.53%) 오른 2991.83에 거래되고 있다. 이날 0.45% 상승 출발한 코스피는 장중 한때 2995선(1.66%)까지 오르며 3000선에 바짝 다가섰다.개인이 4224억원을 순매수하는 가운데 외국인과 기관은 각각 1994억원, 2035억원을 순매도하고 있다.업종별로는 증권(4.54%), 전기·전자(3.29%), 제조(1.70%), 기계·장비(1.46%), 의료·정밀기기(1.27%) 등이 오르고 있고, 운송·창고(-1.27%), 유통(-0.50%), 화학(-0.46%), 통신(-0.32%) 등은 하락세다.삼성전자(3.93%), SK하이닉스(4.64%), 삼성바이오로직스(0.49%), LG에너지솔루션(1.37%), 현대차(0.99%), KB금융(1.02%), 삼성전자우(3.62%), 기아(1.33%) 등이 상승세다. 반면 한화에어로스페이스(-2.06%), HD현대중공업(-2.23%)은 하락하고 있다.같은 시각 코스닥 지수는 전 거래일 대비 5.62포인트(0.72%) 오른 782.88에 거래되고 있다. 개인이 홀로 1053억원을 순매수하고 있으며, 외국인과 기관은 각각 687억원, 226억원을 순매도 중이다.시가총액 상위 종목에선 알테오젠(0.25%), 에코프로비엠(1.56%), HLB(0.59%), 에코프로(1.07%) 등이 상승하고 있고, 파마리서치(-4.04%), 펩트론(-1.28%), 리가켐바이오(-0.70%) 등은 하락 중이다.국내 증시가 상승 흐름을 이어가는 데는 뉴욕 증시의 상승세가 영향을 미친 것으로 보인다.전날 뉴욕 증시는 중동 긴장 완화에 대한 기대감이 확산되면서 3대 지수가 모두 상승했다. 이스라엘과 이란 간 무력 충돌이 4일째 이어지는 가운데, 이란이 미국에 휴전 의사를 간접적으로 전달한 것으로 알려지면서 추가 군사 충돌 가능성이 줄어들 것이란 낙관론이 부상한 것이다.다우존스30 산업평균지수는 전장 대비 317.30포인트(0.75%) 오른 4만2515.09에 마감했다. 같은 기간 스탠더드앤드푸어스(S&amp;P)500 지수는 0.94% 상승한 6033.11, 나스닥 종합지수는 1.52% 오른 1만9701.21에 장을 닫았다.한지영 키움증권 연구원은 "이스라엘-이란 휴전 기대감에 따른 미국 증시 반등이 국내 증시에 호재로 작용하며 상승 출발했다"며 "다만 전날 이미 휴전 기대감이 일부 선반영된 데다 단기 과열 우려도 있는 만큼, 지수보다는 내수주나 시클리컬(경기민감주) 등 그간 소외됐던 업종을 중심으로 순환매 장세가 전개될 가능성이 크다"고 밝혔다．</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>히든로드 “기관, 가상자산 투자 이제 고려할 때” [매일코인]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>최근도</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025.06.12. 오후 12:40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>싱가포르에서 진행중인 ‘리플APEX 2025’에 참석한 이안 드 보드 온도파이낸스 CSO[사진=최근도 기자]“토큰화는 이미 여기있고 현재의 일(here and now)”12일 이안 드 보드 온도파이낸스(ONDO) CSO는 싱가포르에서 진행중인 ‘리플APEX2025’에서 “토큰화는 이미 규모를 확보하고 있다”면서 “스테이블코인이 ‘토큰화된 돈’으로서 가장 첫번째라면 미국채, 부동산 그리고 다음은 프라이빗 에쿼티 등이 될 것”이라고 말했다.이날 진행된 ‘월스트리트 2.0: 토큰 경제의 미래에 있는 온도파이낸스’ 세션은 모니카 롱 리플 사장과 이안 드 보드 CSO가 참석했다.온도파이낸스는 실물 자산 토큰화 분야 플랫폼 기업이다. 지난 11일 리플의 블록체인 XRP레저에 토큰화된 ‘온도 단기 미국 국채(OUSG)’를 정식 출시한다고 밝혔다.드 보드 CSO는 “기관은 전통적으로 ‘효율성’을 중시했는데, 블록체인이 가져온건 사실 세계화였다”고 말했다.그는 “스테이블코인이 실제로 가져온 건 효율성보다는 전세계에서 수요가 생겨서 규모가 커진 것”이라면서 “전통자산 또한 토큰화하면 같은 길을 걸을 것”이라고 설명했다.그는 향후 토큰화 어돕션의 시점에 대해선 “얼마나 많은 사람들이 웹3 지갑을 쓰는가가 중요하고, 그들이 마켓에서 결제에 쓰기까지한다면 그게 가장 중요한 포인트일 것”이라면서 “이 기술의 아름다움은 하나의 어카운트, 하나의 시장에 모든걸 모을 수 있다는 것”이라고 말했다.온도파이낸스의 다음 목표에 대해선 전통 금융의 유동성을 블록체인으로 끌어오는 것이라고 했다.그는 “온도는 사용자가 있는 곳에 가고 있는데 10개의 체인에 출시했다”면서 “향후 브릿지 같은 기술로 유동성 문제를 해소하겠지만, 그래도 우리가 가장 주요하게 보는건 주식, 채권 등의 전통금융의 유동성을 블록체인에 가져오는 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>대신밸류리츠 "금융·부동산 전주기 아우르는 대표 상장 리츠될 것"</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>한경우</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025.06.12. 오후 12:25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>김송규 대신자산신탁 대표가 기자간담회에서 인사말을 하고 있다. /사진=대신밸류리츠“금융서비스와 부동산사업 전주기를 아우르는 대신파이낸셜그룹의 인프라를 기반으로 향후 안정성과 수익성을 모두 갖춘 대표 상장 리츠로 자리매김하겠습니다.”김송규 대신자산신탁 대표이사는 12일 서울 여의도에서 개최한 기자간담회에서 “대신밸류리츠는 투자자와의 신뢰를 바탕으로 지속가능한 수익 환원을 실현하겠다”며 이 같이 밝혔다.대신밸류리츠는 대신파이낸셜그룹의 첫 상장리츠로, 대신파이낸셜그룹의 통합사옥인 ‘대신343’를 기초자산으로 작년에 설립됐다. 대신343은 서울 도심권역(CBD)의 트리플 역세권에 위치한 최상급 스펙의 프라임 오피스빌딩이다. 이를 기초자산으로 한 대신밸류리츠는 안전성과 수익성을 동시에 갖춘, 리츠 시장에서는 희소한 가치를 지닌 자산으로 평가된다.우선 대신343에는 대신파이낸셜그룹의 모든 계열사들이 입주해 전체 면적을 책임 임차하는 트리플넷 마스터리스 구조다. 공실이 발생할 리스크에서 자유로워 안정적으로 임대수익을 올릴 수 있다.김 대표에 이어 연단에 오른 박영곤 대신자산신탁 리츠투자부문장은 “대신343은 고효율·친환경 설계가 적용된 자산으로, 향후 자산가치 상승과 재평가에 따라 대신밸류리츠의 배당 성장 가능성도 높다”고 강조했다.박영곤 대신밸류리츠 리츠사업부문장이 프레젠테이션을 하고 있다. /사진=대신밸류리츠당장의 배당 수익 기대도 높다. 대신밸류리츠는 8월 결산 기준으로 11월에 첫 번째 분기배당을 시행할 예정이다. 이후에도 연 4회 분기배당을 통해 투자자들이 현금흐름을 예측하고 복리 효과를 누리게 할 방침이다.박 부문장은 “리츠의 본질적 수익성과 안정적 운용 구조를 바탕으로 안정적 운용구조를 바탕으로, 기관투자자 뿐 아니라 장기보유형 개인투자자에게도 적합한 투자처로 주목받을 것”이라고 말했다.주식의 시세차익을 노리는 투자자들에게도 매력적일 수 있다고 대신밸류리츠는 자평했다. 공모 전 프리-IPO를 통해 전체 자금의 68%를 조달했기 때문이다. 유통주식 물량이 많지 않다는 뜻이다. 이런 가운데 우량 자산을 보유한 만큼 상장 후 주요 리츠 상장지수펀드(ETF)에 편입돼 수급이 몰릴 가능성도 있다.7월 유가증권시장 상장을 추진 중인 대신밸류리츠는 이미 자산 편입을 마무리했다. 이번에 조달하는 자금은 자(子)리츠 주식 매입을 위해 빌린 돈을 갚는 데 사용할 예정이다.향후 자산 확대와 이에 따른 추가 배당 성장 가능성도 기대된다. 대신파이낸셜그룹의 개발 자산을 우선적으로 편입할 수 있는 구조를 확보하고 있어서다. 대신밸류리츠는 상장한지 5년 이후엔 자산규모를 2조원 이상 확대하는 걸 목표로 삼았다. 그룹의 프로젝트 리츠 개발과 자산편입을 연계한 초대형 상장리츠로 도약할 계획이라고 박 부문장은 말했다.대신밸류리츠는 IPO를 통해 모두 965억원 규모의 공모를 진행한다. 공모예정주식 수는 1930만주다. 오는 13일까지 기관 투자자 대상의 수요예측을 하고, 23~24일에 일반청약을 거쳐 다음달 10일께 유가증권시장에 입성할 예정이다. 주관사는 대신증권, 한국투자증권, 삼성증권이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>위메이드, 위믹스 상폐 효력정지 가처분 기각에 항고</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>김주환</t>
+          <t>2025.06.17</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025.06.12. 오전 11:59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>위믹스[위메이드 제공. 재판매 및 DB 금지](서울=연합뉴스) 김주환 기자 = 국내 가상자산 거래소의 가상화폐 위믹스(WEMIX) 거래지원 중지(상장폐지) 결정에 효력정지 가처분 신청을 제기했던 국내 게임사 위메이드가 법원의 기각 결정에 항고했다.12일 게임업계에 따르면 위메이드는 지난 11일 서울중앙지법에 거래지원 종료 결정 효력정지 가처분 기각에 대한 항고장을 제출했다.위메이드 측이 제기한 항고 사건 심리는 향후 서울고법에서 열릴 전망이다.앞서 서울중앙지법 민사합의50부(김상훈 수석부장판사)는 지난달 30일 위메이드가 빗썸, 코인원, 코빗, 고팍스 등 디지털자산거래소 공동협의체(DAXA·닥사) 소속 4개 거래소를 상대로 제기한 효력정지 가처분 신청을 기각 결정했다.위믹스는 국내 게임업체 위메이드가 블록체인 게임 생태계를 노리고 자회사를 통해 발행한 가상화폐다.고팍스, 빗썸, 업비트, 코빗, 코인원 등 국내 5개 원화 가상자산 거래소 간 협의체인 닥사는 지난 2일 거래유의종목으로 지정한 위믹스를 상장 폐지하기로 결정했다.위믹스 측이 2월 28일 가상화폐 지갑 해킹으로 90억원어치 위믹스 코인을 탈취당했고, 이런 사실을 4일가량이 지나 처음 공지했다는 이유에서다.위메이드 측은 DAXA가 논의 과정과 근거를 제대로 밝히지 않고 일방적으로 상장폐지 결정을 내렸다며 법원에 가처분 소송을 제기했다.그러나 재판부는 위메이드와 위믹스가 코인 관련 중요사항을 성실히 공시했다고 보기 어렵고, 위믹스 코인의 시스템에 대한 최초 침투 경위를 제대로 확인하지 못했다며 거래소 측의 손을 들어주었다.이에 따라 위믹스는 상장폐지가 확정, 지난 2일부터 국내 원화 거래소에서의 거래가 중지됐다. 다음달 2일부터는 다른 지갑이나 해외 거래소 계정으로의 출금 지원도 끝난다.'재상폐' 위믹스, 긴급 기자 간담회(성남=연합뉴스) 김주환 기자 = 김석환 위믹스 재단 (WEMIX PTE. LTD.) 대표가 3일 경기 성남시 테크1타워에서 긴급 기자 간담회를 열고 취재진에 대응 경과와 향후 계획을 설명하고 있다. 전날 디지털자산거래소 공동협의체(DAXA)는 거래 유의 종목으로 지정돼 있던 위믹스(WEMIX)를 상장 폐지하기로 결정했다. 2025.5.3 jujuk@yna.co.kr법원 결정에 김석환 위믹스 대표는 지난 2일 긴급 투자자 간담회를 열고 항고 진행 의사를 밝혔다.아울러 해외 거래소 추가 상장을 추진하고, 위믹스 운영에 대한 신뢰성을 높이고자 투명성 위원회를 설치하겠다고도 설명했다.jujuk@yna.co.kr</t>
+          <t>마이클 히긴스 히든로드 CEO&lt;사진=최근도 기자&gt;“가상자산은 더 이상 일시적인 유행이 아니다. 실제 제품이며 진정한 자산 클래스로 발전하고 있다.”마이클 히긴스 히든로드 CEO는 지난10일에서 12일까지 싱가포르에서 진행된 ‘리플 APEX 2025’에서 매일경제와 만나 “규제 명확성, 인프라 등이 여전히 필요하지만, 확실한 건 이제 이를 검토할 때”라면서 이같이 말했다.리플은 지난 4월 프라임 브로커 업체인 ‘히든로드’를 12억5000만달러(약 1조7000억원)에 인수했다.프라임브로커는 헤지펀드나 대형기관투자자의 주거래증권사다.이들 대상 자금대출, 주식대여, 증거금 대납 등을 함. 특히 이들의 거래를 증거금, 마진, 금액계산 등을 통해 청산시키는 일을 한다.히든로드는 연간 3조 달러 이상의 거래를 청산하며 300곳 이상의 주요 기관 고객을 보유했다.히긴스 CEO는 우선 히든로드가 리플에 인수된 것에 대해 “리플을 통해 빠르고 효율적인 서비스를 제공할 수 있게 됐다”고 설명했다.그는 “히든로드는 다양한 자산을 수평적으로 처리하는 프라임브로커로 기관 고객의 주식, 외환, 가상자산 거래를 한번에 파악해서 청산시키는데 규모가 커지면서 청산을 위한 충분한 유동성을 확보하는데 어려움을 겪었다”면서 “세계최대의 비은행 청산업체인 리플을 통해 프라임브로커리지의 청산서비스에서 공급과 수요 문제를 해결할 수 있었다”고 말했다.그는 특히 “리플은 뉴욕금융감독청(NYDFS)의 승인을 받은 스테이블코인을 보유하고 있고, 24시간 거래가 가능하며 커스터디도 가능하다”면서 “규제 준수를 최우선으로 삼은 리플과 미국 상품거래위원회(CFTC), 미국 증권거래위원회(SEC) 등 다양한 규제 기관의 승인을 받은 히든로드가 결합한 건 기관들의 신뢰를 얻는게 결정적”이라고 말했다.기관 고객들도 양사의 합병에 만족했다. 히긴스 CEO는 “하루에 10억 달러를 거래할 수 있었던 고객이 이제 50억 달러를 거래할 수 있게 됐다”면서 “기존 고객들은 매우 만족했다”고 말했다.미국 자본시장과 기관 투자자의 트랜드에 대해선 이미 기관의 채택이 늘고 있다고 설명했다.히긴스 CEO는 “블랙록의 비트코인 ETF는 역사상 가장 성공적인 ETF 출시였고, 시카고상업거래소(CME)는 비트코인, 솔라나에 이어 XRP선물도 출시했다”면서“이것만 봐도 이미 기관 채택은 시작”이라고 했다.그는 다만 “은행들은 아직 지니어스액트와 같은 규제 확실성 기다리는 중”이라고 덧붙였다.기관들의 가상자산 시장 전략에 대해서는 “기관이 시장에 처음 진입하는 전략은 ‘무위험 거래를 얼마나 할 수 있는지’ 여부”라면서 “크립토에는 스팟 영구 스왑, 선물 옵션이 수천 개의 토큰 등 수천개의 상품이 있고 여전히 ‘델타 중립 전략’ 기회가 많다”고 했다.탈중앙화 금융에 대해선 “기관이 디파이 진입을 위한 도전 과제는 자금세탁방지(AML)과 고객확인(KYC)”이라면서 “하이퍼리퀴드 같은 사례를 포함해 채택이 증가하겠지만 도전 과제가 많다”고 설명했다.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26만닉스도 뚫었다…SK하이닉스 신고가 경신 [이런국장 저런주식]</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아세아텍, 자기주식 100만주 공개매수…주가 반응은 '미지근'</t>
+          <t>김남균</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>신하연</t>
+          <t>2025.06.17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025.06.12. 오전 11:42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>자사주 100만주 매입 계획 공시…매수가액 2900원소각 계획은 명시 안해…오히려 "지분 제휴 활용 가능" 언급[이데일리 신하연 기자] 농업기계 제조 및 판매사 아세아텍(050860)이 자기주식 100만주를 공개매수하겠다고 밝혔지만, 시장 반응은 뜨뜻미지근하다. 주주가치 제고를 명분으로 내세웠지만 소각 계획은 따로 없고, 오히려 향후 전략적 투자자에게 매각할 가능성을 열어둔 점이 투자자의 신뢰를 이끌어내지 못한 것으로 풀이된다.아세아텍이 판매 중인 사각결속기 제품 이미지. (사진=아세아텍)아세아텍은 12일 공시를 통해 발행주식총수의 4.4%에 해당하는 자기주식 100만주를 주당 2900원에 공개매수한다고 밝혔다. 총 매입 규모는 약 29억원이며, 공개매수는 이날부터 내달 3일까지 이뤄지며, 결제일은 7월 9일로 예정됐다. 기존 보유 자사주 331만여주에 더해 매수 완료 시 자사주 보유비율은 19.16%로 확대된다.공시 직후 아세아텍 주가는 17% 가까이 오르며 반응하는 듯했지만, 2655원을 고점으로 이내 2400원대로 내려앉았다. 이날 오전 11시12분 현재 아세아텍은 전장보다 8.57% 오른 2470원에 거래 중이다. 최근 자사주 공개매수를 발표한 일부 기업들이 상한가를 기록한 것과는 대조적인 흐름이다.시장에서는 이번 공개매수 계획이 ‘주주친화’보다 ‘지배력 강화’에 더 가까운 게 아니냐는 의구심이 나오는 분위기다.실제로 아세아텍은 과거에도 2014년과 2017년 자사주 공개매수를 진행했으며, 해당 물량은 대주주인 김신길 대표가 취득한 바 있다. 현재 김 대표의 지분은 25.5%, 최대주주 및 특수관계인 지분은 35.1%로 안정적인 지배력을 확보하고 있다.이번 공개매수 설명서에서도 회사 측은 “당사는 이번 공개매수를 통해 회사의 주식가치 및 주주가치를 제고하고자 한다”며 “회사가 매수하는 주식 수량 만큼 유통주식수가 감소하여 주당순자산 가치를 포함한 주당 가치는 상승하게 될 것이며 안정적인 재무구조와 수익성에도 불구하고 오랫동안 부진했던 주가에도 긍정적인 영향을 미칠 것으로 기대하고 있다”고 설명했다.다만 자사주 소각 여부에 대해서는 따로 언급하지 않았다. 오히려 “본 공개매수가 성공적으로 종결된 이후, 회사가 공개매수를 통해 취득한 자기주식을가까운 장래에 제3자에게 양도하기로 합의하거나 계획한 사항은 없다”면서도 “향후 본 공개매수로 취득한 자기주식 중 일부를 전략적 투자자와의 지분제휴 등을 통한 처분에 사용할 수 있다”고 명시했다.전거래일 종가 기준 아세아텍 주가(2275원)는 상장일 종가(2010월 1월26일 3400원) 대비로도 33% 가량 낮은 수준이다.자사주 매입 후 소각은 발행주식 총수가 줄어들면서 주당 가치가 높아지면서 주주환원 효과를 기대할 수 있지만, 매입만으로는 유효한 효과를 내기 어렵다는 게 업계에서 반복돼 온 지적이다. 자사주는 상법상 의결권을 인정받지 못하지만 제3자에게 양도되면 의결권을 되살릴 수 있다. 기업의 보유 자사주가 늘어날수록 대주주의 의결권도 강화되는 셈이다.최근 상장사들은 이재명 대통령의 자사주 소각 의무화 공약 등 정책 변화를 주시하며 자진 상장폐지(상폐)를 목적으로 자사주 전량을 매입하는 등 이에 대응하기 위한 움직임을 보이고 있다.이상헌 iM증권 연구원은 “자사주 취득은 기업의 이익을 주주에게 현금으로 돌려준다는 점에서 배당과 더불어 대표적인 주주환원 수단으로 인식되지만 우리나라의 경우 회사가 매입한 자사주가 대주주의 지배력 강화 수단으로 오용되는 등 문제점이 있다”고 설명했다.</t>
+          <t>올 들어 주가 50% 가까이 올라반도체 업황 개선 기대감 작용[서울경제]SK하이닉스(000660)주가가 장중 역대 최고가를 기록했다.한국거래소에 따르면 17일 오전 9시 42분 기준 SK하이닉스는 전 거래일 대비 4.64% 오른 25만 9500원에 거래되고 있다. SK하이닉스 주가는 개장 직후 25만 원선에 진입, 상승폭을 키우며 장중 고점을 지속 높였다. 주가는 장중 한때 26만 원에 거래되기도 했다. 주가는 이달 들어 10거래일 중 하루만 제외하고 모두 상승세를 보이고 있다. 시가총액 약 188조 원가량으로 코스피 시가총액 2위인 SK하이닉스는 올 들어서 이날(장중 고가 기준)까지 49.51% 뛰었다.삼성전자(005930)도 4.02% 올라 5만 9500원을 나타내고 있다.이는 최근 반도체 업황 및 메모리 가격 인상 기대감이 작용한 것으로 풀이된다. 간밤 뉴욕 증시에서도 미국과 주요국 간 관세 협상 기대감 속에 필라델피아반도체지수가 3% 넘게 급등했다. 엔비디아에 고대역폭메모리(HBM)를 공급하고 있는 SK하이닉스는 인공지능(AI) 산업 확장세 속에서 경쟁력이 부각되고 있다. 엔비디아는 전 세계 HBM 물량 70%를 장악한 미국 AI 반도체 기업이다. 한국투자증권과 신한투자증권은 목표주가로 최고 32만 원을 제시한 상태다.이수림 DS투자증권 연구원은 최근 보고서에서 “메모리 가격은 3분기까지 상승을 지속할 것으로 전망되고 3분기 말에서 4분기 중 단기 하락이 예상된다”면서도 “SK하이닉스는 HBM 매출 비중이 D램내 45%까지 증가할 것으로 예상돼 가격 변동성에서 비교적 자유롭다”고 설명했다.그는 “4분기부터 HBM4는 수율 1%포인트 차이가 발생시키는 원가 상승이 기존 제품 대비 훨씬 커 양산 안정성이 있는 SK하이닉스의 경쟁력이 더 부각될 수밖에 없다”고 분석했다.</t>
         </is>
       </c>
     </row>
